--- a/results/mp/logistic/corona/confidence/168/topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,48 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -91,124 +91,163 @@
     <t>stop</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
 </sst>
 </file>
@@ -566,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +674,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7368421052631579</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +692,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7191780821917808</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C5">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6923076923076923</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.8172323759791122</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>313</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,37 +974,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4736842105263158</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>18</v>
       </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4722222222222222</v>
+        <v>0.4021164021164021</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.7735849056603774</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L10">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4074074074074074</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C11">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.7692307692307693</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3513513513513514</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,16 +1145,16 @@
         <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1156,16 +1195,16 @@
         <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.7674418604651163</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3313953488372093</v>
+        <v>0.3042635658914729</v>
       </c>
       <c r="C14">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D14">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.7578125</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L14">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.24</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.75625</v>
+        <v>0.7734375</v>
       </c>
       <c r="L15">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="M15">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2372881355932203</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1946308724832215</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1277777777777778</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1427,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1456,16 +1495,16 @@
         <v>239</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.7464788732394366</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1477,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,37 +1524,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006731173748422381</v>
+        <v>0.006445375443119562</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="F20">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2361</v>
+        <v>3083</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1535,37 +1574,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003103782735208535</v>
+        <v>0.006326444538169548</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="F21">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>5139</v>
+        <v>2356</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1577,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1585,89 +1624,113 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002808988764044944</v>
+        <v>0.003879728419010669</v>
       </c>
       <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>0.33</v>
+      </c>
+      <c r="F22">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>5135</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22">
+        <v>0.73125</v>
+      </c>
+      <c r="L22">
+        <v>117</v>
+      </c>
+      <c r="M22">
+        <v>117</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.003015541637671074</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>0.57</v>
+      </c>
+      <c r="F23">
+        <v>0.43</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>4298</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L23">
+        <v>34</v>
+      </c>
+      <c r="M23">
+        <v>34</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>14</v>
-      </c>
-      <c r="D22">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>0.46</v>
-      </c>
-      <c r="F22">
-        <v>0.54</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>4970</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.6349206349206349</v>
-      </c>
-      <c r="L23">
-        <v>40</v>
-      </c>
-      <c r="M23">
-        <v>40</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.62</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1679,21 +1742,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.611764705882353</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L25">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1705,21 +1768,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.5815899581589958</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1731,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.5638297872340425</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1757,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.5627118644067797</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L28">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1783,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.5538461538461539</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1809,47 +1872,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.62</v>
       </c>
       <c r="L30">
+        <v>31</v>
+      </c>
+      <c r="M30">
+        <v>31</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>19</v>
-      </c>
-      <c r="M30">
-        <v>19</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.5142857142857142</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1861,21 +1924,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1887,21 +1950,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.4269662921348314</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1913,21 +1976,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.2307692307692308</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1939,21 +2002,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>60</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.2191780821917808</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1965,21 +2028,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.01083333333333333</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1991,59 +2054,397 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1187</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>0.008170961659333752</v>
+        <v>0.5313807531380753</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="N37">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1578</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>0.004870738104158861</v>
+        <v>0.5</v>
       </c>
       <c r="L38">
+        <v>14</v>
+      </c>
+      <c r="M38">
+        <v>14</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39">
+        <v>0.5</v>
+      </c>
+      <c r="L39">
+        <v>35</v>
+      </c>
+      <c r="M39">
+        <v>35</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40">
+        <v>0.4848484848484849</v>
+      </c>
+      <c r="L40">
+        <v>16</v>
+      </c>
+      <c r="M40">
+        <v>16</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41">
+        <v>0.4157303370786517</v>
+      </c>
+      <c r="L41">
+        <v>37</v>
+      </c>
+      <c r="M41">
+        <v>37</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>17</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L43">
+        <v>14</v>
+      </c>
+      <c r="M43">
+        <v>14</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44">
+        <v>0.2876712328767123</v>
+      </c>
+      <c r="L44">
+        <v>21</v>
+      </c>
+      <c r="M44">
+        <v>21</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45">
+        <v>0.2692307692307692</v>
+      </c>
+      <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46">
+        <v>0.21875</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
+      </c>
+      <c r="M46">
+        <v>14</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47">
+        <v>0.01502504173622705</v>
+      </c>
+      <c r="L47">
+        <v>18</v>
+      </c>
+      <c r="M47">
+        <v>20</v>
+      </c>
+      <c r="N47">
+        <v>0.9</v>
+      </c>
+      <c r="O47">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48">
+        <v>0.008176100628930818</v>
+      </c>
+      <c r="L48">
         <v>13</v>
       </c>
-      <c r="M38">
+      <c r="M48">
         <v>17</v>
       </c>
-      <c r="N38">
+      <c r="N48">
         <v>0.76</v>
       </c>
-      <c r="O38">
+      <c r="O48">
         <v>0.24</v>
       </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>2656</v>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49">
+        <v>0.005622188905547227</v>
+      </c>
+      <c r="L49">
+        <v>15</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>0.75</v>
+      </c>
+      <c r="O49">
+        <v>0.25</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50">
+        <v>0.003939745075318656</v>
+      </c>
+      <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <v>30</v>
+      </c>
+      <c r="N50">
+        <v>0.57</v>
+      </c>
+      <c r="O50">
+        <v>0.43</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51">
+        <v>0.003210272873194221</v>
+      </c>
+      <c r="L51">
+        <v>16</v>
+      </c>
+      <c r="M51">
+        <v>28</v>
+      </c>
+      <c r="N51">
+        <v>0.57</v>
+      </c>
+      <c r="O51">
+        <v>0.43</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4968</v>
       </c>
     </row>
   </sheetData>
